--- a/tests/test_dfs_wg.xlsx
+++ b/tests/test_dfs_wg.xlsx
@@ -319,9 +319,6 @@
     <t>hhsize</t>
   </si>
   <si>
-    <t>rent</t>
-  </si>
-  <si>
     <t>hh_korr</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>wgY</t>
+  </si>
+  <si>
+    <t>miete</t>
   </si>
 </sst>
 </file>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -800,19 +800,19 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
@@ -854,49 +854,49 @@
         <v>17</v>
       </c>
       <c r="Y1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z1" t="s">
         <v>3</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC1" t="s">
         <v>15</v>
       </c>
       <c r="AD1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" t="s">
         <v>35</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>36</v>
       </c>
       <c r="AF1" t="s">
         <v>16</v>
       </c>
       <c r="AG1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>26</v>
-      </c>
       <c r="AK1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" t="s">
-        <v>33</v>
-      </c>
       <c r="AM1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" t="s">
         <v>30</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>2016</v>
       </c>
       <c r="AA3" s="13">
-        <f t="shared" ref="AA3:AA13" si="0">1.15*(AN3-((AH3+(AI3*AN3)+(AJ3*AM3))*AM3))</f>
+        <f t="shared" ref="AA3:AA4" si="0">1.15*(AN3-((AH3+(AI3*AN3)+(AJ3*AM3))*AM3))</f>
         <v>112.28878874999987</v>
       </c>
       <c r="AC3">
@@ -1142,7 +1142,7 @@
         <v>70</v>
       </c>
       <c r="AM3" s="12">
-        <f t="shared" ref="AM3:AM13" si="3">AG3</f>
+        <f t="shared" ref="AM3:AM8" si="3">AG3</f>
         <v>1445</v>
       </c>
       <c r="AN3">
